--- a/Rapports/Mission 1/CorrectionCroise/Fiche_correction_croisee.xlsx
+++ b/Rapports/Mission 1/CorrectionCroise/Fiche_correction_croisee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brognietgeoffrey/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vic91\Documents\GitHub\ProjetAdmin2TIG2\Rapports\Mission 1\CorrectionCroise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED01AEF1-21B7-CC4A-8F71-F8F74C8BE7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C901DFD2-B550-4D1F-8466-B95DCAF086F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Généralités" sheetId="1" r:id="rId1"/>
@@ -898,35 +898,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -949,23 +925,47 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1308,23 +1308,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1007"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C72" sqref="C72:C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="88" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="76.5" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+    <col min="3" max="3" width="76.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="80.25" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:3" ht="98.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1337,10 +1337,10 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:3" ht="22.5" customHeight="1">
       <c r="A4" s="4" t="s">
@@ -1354,11 +1354,11 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
     </row>
     <row r="6" spans="1:3" ht="22.5" customHeight="1">
       <c r="A6" s="7" t="s">
@@ -1367,7 +1367,7 @@
       <c r="B6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       <c r="B7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="54"/>
     </row>
     <row r="8" spans="1:3" ht="22.5" customHeight="1">
       <c r="A8" s="11" t="s">
@@ -1387,7 +1387,7 @@
       <c r="B8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="55"/>
     </row>
     <row r="9" spans="1:3" ht="22.5" customHeight="1">
       <c r="A9" s="13" t="s">
@@ -1396,7 +1396,7 @@
       <c r="B9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="54"/>
     </row>
     <row r="10" spans="1:3" ht="22.5" customHeight="1">
       <c r="A10" s="14" t="s">
@@ -1405,7 +1405,7 @@
       <c r="B10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="55"/>
     </row>
     <row r="11" spans="1:3" ht="22.5" customHeight="1">
       <c r="A11" s="9" t="s">
@@ -1414,7 +1414,7 @@
       <c r="B11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="54"/>
     </row>
     <row r="12" spans="1:3" ht="22.5" customHeight="1">
       <c r="A12" s="14" t="s">
@@ -1423,7 +1423,7 @@
       <c r="B12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="55"/>
     </row>
     <row r="13" spans="1:3" ht="22.5" customHeight="1">
       <c r="A13" s="15" t="s">
@@ -1432,7 +1432,7 @@
       <c r="B13" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="54"/>
     </row>
     <row r="14" spans="1:3" ht="22.5" customHeight="1">
       <c r="A14" s="17" t="s">
@@ -1441,14 +1441,14 @@
       <c r="B14" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="58"/>
     </row>
     <row r="15" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
     </row>
     <row r="16" spans="1:3" ht="31.5" customHeight="1">
       <c r="A16" s="7" t="s">
@@ -1457,7 +1457,7 @@
       <c r="B16" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="46" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       <c r="B17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="47"/>
     </row>
     <row r="18" spans="1:3" ht="36.75" customHeight="1">
       <c r="A18" s="11" t="s">
@@ -1477,7 +1477,7 @@
       <c r="B18" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="48"/>
     </row>
     <row r="19" spans="1:3" ht="22.5" customHeight="1">
       <c r="A19" s="13" t="s">
@@ -1486,7 +1486,7 @@
       <c r="B19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="55"/>
+      <c r="C19" s="47"/>
     </row>
     <row r="20" spans="1:3" ht="36.75" customHeight="1">
       <c r="A20" s="11" t="s">
@@ -1495,7 +1495,7 @@
       <c r="B20" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="48"/>
     </row>
     <row r="21" spans="1:3" ht="36.75" customHeight="1">
       <c r="A21" s="13" t="s">
@@ -1504,7 +1504,7 @@
       <c r="B21" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="47"/>
     </row>
     <row r="22" spans="1:3" ht="36.75" customHeight="1">
       <c r="A22" s="11" t="s">
@@ -1513,7 +1513,7 @@
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="56"/>
+      <c r="C22" s="48"/>
     </row>
     <row r="23" spans="1:3" ht="36.75" customHeight="1">
       <c r="A23" s="13" t="s">
@@ -1522,7 +1522,7 @@
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="47"/>
     </row>
     <row r="24" spans="1:3" ht="50.25" customHeight="1">
       <c r="A24" s="19" t="s">
@@ -1531,7 +1531,7 @@
       <c r="B24" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="56"/>
+      <c r="C24" s="48"/>
     </row>
     <row r="25" spans="1:3" ht="22.5" customHeight="1">
       <c r="A25" s="21" t="s">
@@ -1540,23 +1540,23 @@
       <c r="B25" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="49"/>
     </row>
     <row r="26" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
     </row>
     <row r="27" spans="1:3" ht="36.75" customHeight="1">
       <c r="A27" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="59" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       <c r="B28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="48"/>
     </row>
     <row r="29" spans="1:3" ht="48" customHeight="1">
       <c r="A29" s="9" t="s">
@@ -1576,7 +1576,7 @@
       <c r="B29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="55"/>
+      <c r="C29" s="47"/>
     </row>
     <row r="30" spans="1:3" ht="50.25" customHeight="1">
       <c r="A30" s="14" t="s">
@@ -1585,7 +1585,7 @@
       <c r="B30" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="48"/>
     </row>
     <row r="31" spans="1:3" ht="39" customHeight="1">
       <c r="A31" s="9" t="s">
@@ -1594,7 +1594,7 @@
       <c r="B31" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="55"/>
+      <c r="C31" s="47"/>
     </row>
     <row r="32" spans="1:3" ht="38.25" customHeight="1">
       <c r="A32" s="14" t="s">
@@ -1603,7 +1603,7 @@
       <c r="B32" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="56"/>
+      <c r="C32" s="48"/>
     </row>
     <row r="33" spans="1:3" ht="43.5" customHeight="1">
       <c r="A33" s="9" t="s">
@@ -1612,7 +1612,7 @@
       <c r="B33" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="55"/>
+      <c r="C33" s="47"/>
     </row>
     <row r="34" spans="1:3" ht="43.5" customHeight="1">
       <c r="A34" s="11" t="s">
@@ -1621,7 +1621,7 @@
       <c r="B34" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="56"/>
+      <c r="C34" s="48"/>
     </row>
     <row r="35" spans="1:3" ht="50.25" customHeight="1">
       <c r="A35" s="13" t="s">
@@ -1630,7 +1630,7 @@
       <c r="B35" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="55"/>
+      <c r="C35" s="47"/>
     </row>
     <row r="36" spans="1:3" ht="36.75" customHeight="1">
       <c r="A36" s="19" t="s">
@@ -1639,7 +1639,7 @@
       <c r="B36" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="56"/>
+      <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:3" ht="22.5" customHeight="1">
       <c r="A37" s="21" t="s">
@@ -1648,23 +1648,23 @@
       <c r="B37" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="57"/>
+      <c r="C37" s="49"/>
     </row>
     <row r="38" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="52"/>
     </row>
     <row r="39" spans="1:3" ht="34.5" customHeight="1">
       <c r="A39" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="60" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       <c r="B40" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="56"/>
+      <c r="C40" s="48"/>
     </row>
     <row r="41" spans="1:3" ht="43.5" customHeight="1">
       <c r="A41" s="27" t="s">
@@ -1684,7 +1684,7 @@
       <c r="B41" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="55"/>
+      <c r="C41" s="47"/>
     </row>
     <row r="42" spans="1:3" ht="31.5" customHeight="1">
       <c r="A42" s="29" t="s">
@@ -1693,7 +1693,7 @@
       <c r="B42" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="56"/>
+      <c r="C42" s="48"/>
     </row>
     <row r="43" spans="1:3" ht="22.5" customHeight="1">
       <c r="A43" s="21" t="s">
@@ -1702,14 +1702,14 @@
       <c r="B43" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="57"/>
+      <c r="C43" s="49"/>
     </row>
     <row r="44" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="60"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="52"/>
     </row>
     <row r="45" spans="1:3" ht="22.5" customHeight="1">
       <c r="A45" s="31" t="s">
@@ -1718,7 +1718,7 @@
       <c r="B45" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="53" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       <c r="B46" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="52"/>
+      <c r="C46" s="55"/>
     </row>
     <row r="47" spans="1:3" ht="36.75" customHeight="1">
       <c r="A47" s="31" t="s">
@@ -1738,7 +1738,7 @@
       <c r="B47" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="51"/>
+      <c r="C47" s="54"/>
     </row>
     <row r="48" spans="1:3" ht="36.75" customHeight="1">
       <c r="A48" s="34" t="s">
@@ -1747,7 +1747,7 @@
       <c r="B48" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="52"/>
+      <c r="C48" s="55"/>
     </row>
     <row r="49" spans="1:3" ht="22.5" customHeight="1">
       <c r="A49" s="35" t="s">
@@ -1756,7 +1756,7 @@
       <c r="B49" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="51"/>
+      <c r="C49" s="54"/>
     </row>
     <row r="50" spans="1:3" ht="22.5" customHeight="1">
       <c r="A50" s="17" t="s">
@@ -1765,14 +1765,14 @@
       <c r="B50" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="53"/>
+      <c r="C50" s="58"/>
     </row>
     <row r="51" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="49"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="62"/>
     </row>
     <row r="52" spans="1:3" ht="22.5" customHeight="1">
       <c r="A52" s="7" t="s">
@@ -1781,7 +1781,7 @@
       <c r="B52" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="53" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="B53" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="51"/>
+      <c r="C53" s="54"/>
     </row>
     <row r="54" spans="1:3" ht="36.75" customHeight="1">
       <c r="A54" s="14" t="s">
@@ -1801,7 +1801,7 @@
       <c r="B54" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="52"/>
+      <c r="C54" s="55"/>
     </row>
     <row r="55" spans="1:3" ht="36.75" customHeight="1">
       <c r="A55" s="9" t="s">
@@ -1810,7 +1810,7 @@
       <c r="B55" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="51"/>
+      <c r="C55" s="54"/>
     </row>
     <row r="56" spans="1:3" ht="36.75" customHeight="1">
       <c r="A56" s="14" t="s">
@@ -1819,7 +1819,7 @@
       <c r="B56" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="52"/>
+      <c r="C56" s="55"/>
     </row>
     <row r="57" spans="1:3" ht="36.75" customHeight="1">
       <c r="A57" s="9" t="s">
@@ -1828,7 +1828,7 @@
       <c r="B57" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="51"/>
+      <c r="C57" s="54"/>
     </row>
     <row r="58" spans="1:3" ht="22.5" customHeight="1">
       <c r="A58" s="36" t="s">
@@ -1837,7 +1837,7 @@
       <c r="B58" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="52"/>
+      <c r="C58" s="55"/>
     </row>
     <row r="59" spans="1:3" ht="22.5" customHeight="1">
       <c r="A59" s="21" t="s">
@@ -1846,14 +1846,14 @@
       <c r="B59" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="61"/>
+      <c r="C59" s="56"/>
     </row>
     <row r="60" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A60" s="58" t="s">
+      <c r="A60" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="59"/>
-      <c r="C60" s="60"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="52"/>
     </row>
     <row r="61" spans="1:3" ht="22.5" customHeight="1">
       <c r="A61" s="37" t="s">
@@ -1862,7 +1862,7 @@
       <c r="B61" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="62"/>
+      <c r="C61" s="57"/>
     </row>
     <row r="62" spans="1:3" ht="36.75" customHeight="1">
       <c r="A62" s="11" t="s">
@@ -1871,7 +1871,7 @@
       <c r="B62" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="52"/>
+      <c r="C62" s="55"/>
     </row>
     <row r="63" spans="1:3" ht="22.5" customHeight="1">
       <c r="A63" s="13" t="s">
@@ -1880,7 +1880,7 @@
       <c r="B63" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="51"/>
+      <c r="C63" s="54"/>
     </row>
     <row r="64" spans="1:3" ht="22.5" customHeight="1">
       <c r="A64" s="14" t="s">
@@ -1889,7 +1889,7 @@
       <c r="B64" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="52"/>
+      <c r="C64" s="55"/>
     </row>
     <row r="65" spans="1:3" ht="22.5" customHeight="1">
       <c r="A65" s="9" t="s">
@@ -1898,7 +1898,7 @@
       <c r="B65" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="51"/>
+      <c r="C65" s="54"/>
     </row>
     <row r="66" spans="1:3" ht="22.5" customHeight="1">
       <c r="A66" s="14" t="s">
@@ -1907,7 +1907,7 @@
       <c r="B66" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="52"/>
+      <c r="C66" s="55"/>
     </row>
     <row r="67" spans="1:3" ht="22.5" customHeight="1">
       <c r="A67" s="9" t="s">
@@ -1916,7 +1916,7 @@
       <c r="B67" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="51"/>
+      <c r="C67" s="54"/>
     </row>
     <row r="68" spans="1:3" ht="22.5" customHeight="1">
       <c r="A68" s="14" t="s">
@@ -1925,7 +1925,7 @@
       <c r="B68" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="52"/>
+      <c r="C68" s="55"/>
     </row>
     <row r="69" spans="1:3" ht="22.5" customHeight="1">
       <c r="A69" s="38" t="s">
@@ -1934,21 +1934,21 @@
       <c r="B69" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="51"/>
+      <c r="C69" s="54"/>
     </row>
     <row r="70" spans="1:3" ht="22.5" customHeight="1">
       <c r="A70" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B70" s="39"/>
-      <c r="C70" s="53"/>
+      <c r="C70" s="58"/>
     </row>
     <row r="71" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A71" s="58" t="s">
+      <c r="A71" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="49"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="62"/>
     </row>
     <row r="72" spans="1:3" ht="22.5" customHeight="1">
       <c r="A72" s="40" t="s">
@@ -1957,7 +1957,7 @@
       <c r="B72" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="50" t="s">
+      <c r="C72" s="53" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       <c r="B73" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="51"/>
+      <c r="C73" s="54"/>
     </row>
     <row r="74" spans="1:3" ht="22.5" customHeight="1">
       <c r="A74" s="11" t="s">
@@ -1977,7 +1977,7 @@
       <c r="B74" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="52"/>
+      <c r="C74" s="55"/>
     </row>
     <row r="75" spans="1:3" ht="22.5" customHeight="1">
       <c r="A75" s="9" t="s">
@@ -1986,7 +1986,7 @@
       <c r="B75" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="51"/>
+      <c r="C75" s="54"/>
     </row>
     <row r="76" spans="1:3" ht="22.5" customHeight="1">
       <c r="A76" s="11" t="s">
@@ -1995,7 +1995,7 @@
       <c r="B76" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="52"/>
+      <c r="C76" s="55"/>
     </row>
     <row r="77" spans="1:3" ht="36.75" customHeight="1">
       <c r="A77" s="13" t="s">
@@ -2004,7 +2004,7 @@
       <c r="B77" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="51"/>
+      <c r="C77" s="54"/>
     </row>
     <row r="78" spans="1:3" ht="50.25" customHeight="1">
       <c r="A78" s="11" t="s">
@@ -2013,7 +2013,7 @@
       <c r="B78" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="52"/>
+      <c r="C78" s="55"/>
     </row>
     <row r="79" spans="1:3" ht="36.75" customHeight="1">
       <c r="A79" s="15" t="s">
@@ -2022,7 +2022,7 @@
       <c r="B79" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C79" s="51"/>
+      <c r="C79" s="54"/>
     </row>
     <row r="80" spans="1:3" ht="22.5" customHeight="1">
       <c r="A80" s="41" t="s">
@@ -2031,7 +2031,7 @@
       <c r="B80" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="53"/>
+      <c r="C80" s="58"/>
     </row>
     <row r="81" spans="1:3" ht="21" customHeight="1">
       <c r="A81" s="43"/>
@@ -6670,6 +6670,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="C16:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="C52:C59"/>
@@ -6683,11 +6688,6 @@
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="C6:C14"/>
-    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B80">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Ok">
